--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Pomc</t>
+  </si>
+  <si>
+    <t>Mc5r</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Pomc</t>
-  </si>
-  <si>
-    <t>Mc5r</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6419623333333333</v>
+        <v>1.703265666666667</v>
       </c>
       <c r="H2">
-        <v>1.925887</v>
+        <v>5.109797</v>
       </c>
       <c r="I2">
-        <v>0.928358882375427</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.928358882375427</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2202326666666667</v>
+        <v>0.6692483333333333</v>
       </c>
       <c r="N2">
-        <v>0.660698</v>
+        <v>2.007745</v>
       </c>
       <c r="O2">
-        <v>0.06579718908617814</v>
+        <v>0.162783276239793</v>
       </c>
       <c r="P2">
-        <v>0.06579718908617814</v>
+        <v>0.162783276239793</v>
       </c>
       <c r="Q2">
-        <v>0.1413810765695555</v>
+        <v>1.139907708640556</v>
       </c>
       <c r="R2">
-        <v>1.272429689126</v>
+        <v>10.259169377765</v>
       </c>
       <c r="S2">
-        <v>0.06108340492348898</v>
+        <v>0.162783276239793</v>
       </c>
       <c r="T2">
-        <v>0.06108340492348898</v>
+        <v>0.162783276239793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6419623333333333</v>
+        <v>1.703265666666667</v>
       </c>
       <c r="H3">
-        <v>1.925887</v>
+        <v>5.109797</v>
       </c>
       <c r="I3">
-        <v>0.928358882375427</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.928358882375427</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.602015</v>
       </c>
       <c r="O3">
-        <v>0.7570648290004852</v>
+        <v>0.6163536244513372</v>
       </c>
       <c r="P3">
-        <v>0.7570648290004851</v>
+        <v>0.6163536244513373</v>
       </c>
       <c r="Q3">
-        <v>1.626735762478333</v>
+        <v>4.316083715661667</v>
       </c>
       <c r="R3">
-        <v>14.640621862305</v>
+        <v>38.844753440955</v>
       </c>
       <c r="S3">
-        <v>0.7028278585366342</v>
+        <v>0.6163536244513372</v>
       </c>
       <c r="T3">
-        <v>0.7028278585366341</v>
+        <v>0.6163536244513373</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6419623333333333</v>
+        <v>1.703265666666667</v>
       </c>
       <c r="H4">
-        <v>1.925887</v>
+        <v>5.109797</v>
       </c>
       <c r="I4">
-        <v>0.928358882375427</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.928358882375427</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.394196</v>
+        <v>0.885104</v>
       </c>
       <c r="N4">
-        <v>1.182588</v>
+        <v>2.655312</v>
       </c>
       <c r="O4">
-        <v>0.1177708518067941</v>
+        <v>0.2152864964419472</v>
       </c>
       <c r="P4">
-        <v>0.1177708518067941</v>
+        <v>0.2152864964419472</v>
       </c>
       <c r="Q4">
-        <v>0.2530589839506667</v>
+        <v>1.507567254629333</v>
       </c>
       <c r="R4">
-        <v>2.277530855556</v>
+        <v>13.568105291664</v>
       </c>
       <c r="S4">
-        <v>0.1093336163597574</v>
+        <v>0.2152864964419472</v>
       </c>
       <c r="T4">
-        <v>0.1093336163597574</v>
+        <v>0.2152864964419472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,309 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6419623333333333</v>
+        <v>1.703265666666667</v>
       </c>
       <c r="H5">
-        <v>1.925887</v>
+        <v>5.109797</v>
       </c>
       <c r="I5">
-        <v>0.928358882375427</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.928358882375427</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1987103333333333</v>
+        <v>0.022927</v>
       </c>
       <c r="N5">
-        <v>0.596131</v>
+        <v>0.06878099999999999</v>
       </c>
       <c r="O5">
-        <v>0.05936713010654257</v>
+        <v>0.005576602866922444</v>
       </c>
       <c r="P5">
-        <v>0.05936713010654257</v>
+        <v>0.005576602866922445</v>
       </c>
       <c r="Q5">
-        <v>0.1275645492441111</v>
+        <v>0.03905077193966667</v>
       </c>
       <c r="R5">
-        <v>1.148080943197</v>
+        <v>0.351456947457</v>
       </c>
       <c r="S5">
-        <v>0.05511400255554642</v>
+        <v>0.005576602866922444</v>
       </c>
       <c r="T5">
-        <v>0.05511400255554642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.04954</v>
-      </c>
-      <c r="H6">
-        <v>0.14862</v>
-      </c>
-      <c r="I6">
-        <v>0.07164111762457297</v>
-      </c>
-      <c r="J6">
-        <v>0.07164111762457297</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.2202326666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.660698</v>
-      </c>
-      <c r="O6">
-        <v>0.06579718908617814</v>
-      </c>
-      <c r="P6">
-        <v>0.06579718908617814</v>
-      </c>
-      <c r="Q6">
-        <v>0.01091032630666667</v>
-      </c>
-      <c r="R6">
-        <v>0.09819293676</v>
-      </c>
-      <c r="S6">
-        <v>0.004713784162689157</v>
-      </c>
-      <c r="T6">
-        <v>0.004713784162689157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.04954</v>
-      </c>
-      <c r="H7">
-        <v>0.14862</v>
-      </c>
-      <c r="I7">
-        <v>0.07164111762457297</v>
-      </c>
-      <c r="J7">
-        <v>0.07164111762457297</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.534005</v>
-      </c>
-      <c r="N7">
-        <v>7.602015</v>
-      </c>
-      <c r="O7">
-        <v>0.7570648290004852</v>
-      </c>
-      <c r="P7">
-        <v>0.7570648290004851</v>
-      </c>
-      <c r="Q7">
-        <v>0.1255346077</v>
-      </c>
-      <c r="R7">
-        <v>1.1298114693</v>
-      </c>
-      <c r="S7">
-        <v>0.05423697046385098</v>
-      </c>
-      <c r="T7">
-        <v>0.05423697046385097</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.04954</v>
-      </c>
-      <c r="H8">
-        <v>0.14862</v>
-      </c>
-      <c r="I8">
-        <v>0.07164111762457297</v>
-      </c>
-      <c r="J8">
-        <v>0.07164111762457297</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.394196</v>
-      </c>
-      <c r="N8">
-        <v>1.182588</v>
-      </c>
-      <c r="O8">
-        <v>0.1177708518067941</v>
-      </c>
-      <c r="P8">
-        <v>0.1177708518067941</v>
-      </c>
-      <c r="Q8">
-        <v>0.01952846984</v>
-      </c>
-      <c r="R8">
-        <v>0.17575622856</v>
-      </c>
-      <c r="S8">
-        <v>0.008437235447036687</v>
-      </c>
-      <c r="T8">
-        <v>0.008437235447036687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.04954</v>
-      </c>
-      <c r="H9">
-        <v>0.14862</v>
-      </c>
-      <c r="I9">
-        <v>0.07164111762457297</v>
-      </c>
-      <c r="J9">
-        <v>0.07164111762457297</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.1987103333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.596131</v>
-      </c>
-      <c r="O9">
-        <v>0.05936713010654257</v>
-      </c>
-      <c r="P9">
-        <v>0.05936713010654257</v>
-      </c>
-      <c r="Q9">
-        <v>0.009844109913333333</v>
-      </c>
-      <c r="R9">
-        <v>0.08859698921999999</v>
-      </c>
-      <c r="S9">
-        <v>0.004253127550996143</v>
-      </c>
-      <c r="T9">
-        <v>0.004253127550996143</v>
+        <v>0.005576602866922445</v>
       </c>
     </row>
   </sheetData>
